--- a/Documentatie/burndownchart project 2.xlsx
+++ b/Documentatie/burndownchart project 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shreyas\Google Drive\CMI\INF1J\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shreyas\Documents\GitHub\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -273,6 +273,18 @@
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
@@ -306,7 +318,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -371,7 +383,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -414,7 +426,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2868,14 +2880,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -3287,7 +3299,7 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,6 +3361,18 @@
       <c r="C3">
         <f>SUM(C2)</f>
         <v>18</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>

--- a/Documentatie/burndownchart project 2.xlsx
+++ b/Documentatie/burndownchart project 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -119,6 +119,41 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Burndownchart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> sprint 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -132,13 +167,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -150,7 +191,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.16449074074074077"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.60368802857976089"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -169,29 +220,105 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$C$2:$H$2</c:f>
@@ -222,7 +349,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3220-4370-9FF1-E1EC6A1E616F}"/>
+              <c16:uniqueId val="{00000000-2760-40FB-8385-0F732C4770AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -241,29 +368,105 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$C$3:$H$3</c:f>
@@ -294,40 +497,41 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3220-4370-9FF1-E1EC6A1E616F}"/>
+              <c16:uniqueId val="{00000001-2760-40FB-8385-0F732C4770AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="437727112"/>
-        <c:axId val="437729080"/>
+        <c:axId val="412885832"/>
+        <c:axId val="412884520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="437727112"/>
+        <c:axId val="412885832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -341,9 +545,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -354,7 +557,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437729080"/>
+        <c:crossAx val="412884520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -362,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="437729080"/>
+        <c:axId val="412884520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,9 +575,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -383,7 +586,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -400,9 +603,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -413,7 +615,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437727112"/>
+        <c:crossAx val="412885832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -426,7 +628,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31600765529308839"/>
+          <c:y val="0.89409667541557303"/>
+          <c:w val="0.45965113735783025"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -442,9 +654,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -461,17 +672,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -521,13 +743,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -558,29 +786,105 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad2!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad2!$C$2:$H$2</c:f>
@@ -611,7 +915,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D05-4208-929F-41313D5DA442}"/>
+              <c16:uniqueId val="{00000000-EA42-4BA0-ADFF-58B86E6F6750}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -630,29 +934,105 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad2!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad2!$C$3:$H$3</c:f>
@@ -671,30 +1051,31 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5D05-4208-929F-41313D5DA442}"/>
+              <c16:uniqueId val="{00000001-EA42-4BA0-ADFF-58B86E6F6750}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443378120"/>
-        <c:axId val="443378448"/>
+        <c:axId val="421943984"/>
+        <c:axId val="421944312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="443378120"/>
+        <c:axId val="421943984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -702,9 +1083,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -718,9 +1099,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -731,7 +1111,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443378448"/>
+        <c:crossAx val="421944312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -739,7 +1119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443378448"/>
+        <c:axId val="421944312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,9 +1129,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -777,9 +1157,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -790,7 +1169,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443378120"/>
+        <c:crossAx val="421943984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -819,9 +1198,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -838,17 +1216,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -898,13 +1287,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -935,29 +1330,105 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad3!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad3!$C$2:$H$2</c:f>
@@ -988,7 +1459,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9EAD-4CCD-9331-DB1EE184BF78}"/>
+              <c16:uniqueId val="{00000000-DDAC-4171-844E-E9DB05F80989}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1007,29 +1478,105 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad3!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad3!$C$3:$H$3</c:f>
@@ -1048,30 +1595,31 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9EAD-4CCD-9331-DB1EE184BF78}"/>
+              <c16:uniqueId val="{00000001-DDAC-4171-844E-E9DB05F80989}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499494536"/>
-        <c:axId val="499494864"/>
+        <c:axId val="421937096"/>
+        <c:axId val="421937424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="499494536"/>
+        <c:axId val="421937096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1079,9 +1627,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1095,9 +1643,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1108,7 +1655,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499494864"/>
+        <c:crossAx val="421937424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1116,7 +1663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499494864"/>
+        <c:axId val="421937424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,9 +1673,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1154,9 +1701,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1167,7 +1713,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499494536"/>
+        <c:crossAx val="421937096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1196,9 +1742,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1215,17 +1760,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1368,35 +1924,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1404,26 +1958,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1432,9 +1994,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1453,14 +2014,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1469,20 +2022,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1491,13 +2044,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1509,10 +2062,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1521,16 +2074,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1548,21 +2102,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1572,20 +2123,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1599,14 +2150,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1620,9 +2171,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1636,12 +2186,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1653,9 +2197,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1670,14 +2214,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1689,14 +2232,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1708,14 +2251,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1724,14 +2266,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1739,7 +2280,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1752,11 +2293,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1764,14 +2315,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1783,12 +2334,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1804,7 +2362,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1813,9 +2370,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1825,7 +2381,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1833,9 +2389,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1846,9 +2402,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1860,46 +2415,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1907,26 +2454,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1935,9 +2490,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1956,14 +2510,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1972,20 +2518,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1994,13 +2540,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2012,10 +2558,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2024,16 +2570,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2051,21 +2598,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2075,20 +2619,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2102,14 +2646,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2123,9 +2667,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2139,12 +2682,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2156,9 +2693,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2173,14 +2710,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2192,14 +2728,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2211,14 +2747,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2227,14 +2762,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2242,7 +2776,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2255,11 +2789,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2267,14 +2811,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2286,12 +2830,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2307,7 +2858,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2316,9 +2866,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2328,7 +2877,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2336,9 +2885,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2349,9 +2898,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2363,46 +2911,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2410,26 +2950,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2438,9 +2986,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2459,14 +3006,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2475,20 +3014,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2497,13 +3036,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2515,10 +3054,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2527,16 +3066,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2554,21 +3094,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2578,20 +3115,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2605,14 +3142,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2626,9 +3163,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2642,12 +3178,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2659,9 +3189,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2676,14 +3206,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2695,14 +3224,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2714,14 +3243,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2730,14 +3258,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2745,7 +3272,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2758,11 +3285,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2770,14 +3307,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2789,12 +3326,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2810,7 +3354,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2819,9 +3362,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2831,7 +3373,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2839,9 +3381,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2852,9 +3394,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2866,12 +3407,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2880,23 +3415,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafiek 4">
+        <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC03BC3-2C81-4721-888A-D4EEC83E791A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC05E16C-34FB-43CB-B2B6-F43430D62351}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2921,23 +3456,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2">
+        <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CE9D59-696D-41BD-AA23-39A971F9196D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE23ED14-5D51-426E-9089-7AFF1622216D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,10 +3510,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2">
+        <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C545A15-2A66-4655-AD70-38DC6B9BE4E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF8CF49-6B99-489C-A24D-11766DB39704}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3298,8 +3833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,7 +3999,7 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentatie/burndownchart project 2.xlsx
+++ b/Documentatie/burndownchart project 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -119,6 +119,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Burndownchart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> sprint 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -132,13 +168,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -159,6 +201,125 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Blad1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84FE-46F7-9EA9-15DC3F05B7AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Blad1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -169,29 +330,79 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$C$2:$H$2</c:f>
@@ -222,13 +433,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3220-4370-9FF1-E1EC6A1E616F}"/>
+              <c16:uniqueId val="{00000001-84FE-46F7-9EA9-15DC3F05B7AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Blad1!$B$3</c:f>
@@ -241,29 +452,79 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$C$3:$H$3</c:f>
@@ -294,40 +555,40 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3220-4370-9FF1-E1EC6A1E616F}"/>
+              <c16:uniqueId val="{00000002-84FE-46F7-9EA9-15DC3F05B7AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="437727112"/>
-        <c:axId val="437729080"/>
+        <c:axId val="417763384"/>
+        <c:axId val="417768304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="437727112"/>
+        <c:axId val="417763384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -341,9 +602,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -354,7 +614,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437729080"/>
+        <c:crossAx val="417768304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -362,7 +622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="437729080"/>
+        <c:axId val="417768304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,9 +632,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -383,7 +643,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -400,9 +660,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -413,7 +672,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437727112"/>
+        <c:crossAx val="417763384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -426,7 +685,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -442,9 +701,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -461,17 +719,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1368,6 +1637,502 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1870,7 +2635,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2373,530 +3138,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafiek 4">
+        <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC03BC3-2C81-4721-888A-D4EEC83E791A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E161BB15-7840-4F4B-9135-551C9EFD393D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3299,7 +3561,7 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentatie/burndownchart project 2.xlsx
+++ b/Documentatie/burndownchart project 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shreyas\Documents\GitHub\Project2-09-00-Present\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRO\Jaar 1\project 2\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6936"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -579,6 +579,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Dagen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -642,6 +695,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Punten</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3561,15 +3667,15 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +3695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3616,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3654,9 +3760,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +3782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3703,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3729,9 +3835,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -3751,7 +3857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3778,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>

--- a/Documentatie/burndownchart project 2.xlsx
+++ b/Documentatie/burndownchart project 2.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="sprint 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -155,6 +155,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39823456278491504"/>
+          <c:y val="2.9878618113912233E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -201,9 +209,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$1</c:f>
+              <c:f>'sprint 1'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideal line</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -281,26 +292,52 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sprint 1'!$C$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$1:$H$1</c:f>
+              <c:f>'sprint 1'!$C$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -311,7 +348,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84FE-46F7-9EA9-15DC3F05B7AB}"/>
+              <c16:uniqueId val="{00000000-DE17-4D54-8835-90BE15F90964}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -320,11 +357,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$2</c:f>
+              <c:f>'sprint 1'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ideal line</c:v>
+                  <c:v>real line</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -403,26 +440,52 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sprint 1'!$C$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$2:$H$2</c:f>
+              <c:f>'sprint 1'!$C$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -433,129 +496,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-84FE-46F7-9EA9-15DC3F05B7AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>real line</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="nl-NL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$C$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-84FE-46F7-9EA9-15DC3F05B7AB}"/>
+              <c16:uniqueId val="{00000001-DE17-4D54-8835-90BE15F90964}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -569,16 +510,78 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="417763384"/>
-        <c:axId val="417768304"/>
+        <c:axId val="432787160"/>
+        <c:axId val="432787488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="417763384"/>
+        <c:axId val="432787160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>aantal dagen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49313492885757704"/>
+              <c:y val="0.82125057897174614"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -614,7 +617,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417768304"/>
+        <c:crossAx val="432787488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -622,7 +625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417768304"/>
+        <c:axId val="432787488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,6 +645,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Aantal punten</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -672,7 +728,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417763384"/>
+        <c:crossAx val="432787160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -777,6 +833,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>burndownchart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> sprint 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -790,13 +882,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -817,7 +915,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad2!$B$2</c:f>
+              <c:f>'sprint 2'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -827,49 +925,125 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sprint 2'!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad2!$C$2:$H$2</c:f>
+              <c:f>'sprint 2'!$C$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.8</c:v>
+                  <c:v>48.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -880,7 +1054,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D05-4208-929F-41313D5DA442}"/>
+              <c16:uniqueId val="{00000000-BCCF-46C2-8D76-410F855657A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -889,7 +1063,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad2!$B$3</c:f>
+              <c:f>'sprint 2'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -899,37 +1073,119 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sprint 2'!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad2!$C$3:$H$3</c:f>
+              <c:f>'sprint 2'!$C$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -940,30 +1196,84 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5D05-4208-929F-41313D5DA442}"/>
+              <c16:uniqueId val="{00000001-BCCF-46C2-8D76-410F855657A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443378120"/>
-        <c:axId val="443378448"/>
+        <c:axId val="427623840"/>
+        <c:axId val="427620888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="443378120"/>
+        <c:axId val="427623840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>aantal dagen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -971,9 +1281,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -987,9 +1297,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1000,7 +1309,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443378448"/>
+        <c:crossAx val="427620888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1008,7 +1317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443378448"/>
+        <c:axId val="427620888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,9 +1327,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1028,6 +1337,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Aantal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> punten</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1046,9 +1413,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1059,7 +1425,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443378120"/>
+        <c:crossAx val="427623840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1088,9 +1454,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1107,17 +1472,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1194,7 +1570,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad3!$B$2</c:f>
+              <c:f>'sprint 3'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1229,7 +1605,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Blad3!$C$2:$H$2</c:f>
+              <c:f>'sprint 3'!$C$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1266,7 +1642,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad3!$B$3</c:f>
+              <c:f>'sprint 3'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1301,7 +1677,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Blad3!$C$3:$H$3</c:f>
+              <c:f>'sprint 3'!$C$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2133,6 +2509,502 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2635,530 +3507,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1">
+        <xdr:cNvPr id="3" name="Grafiek 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E161BB15-7840-4F4B-9135-551C9EFD393D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6729AD-36B3-407D-8B83-67FE4DAC9F5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,22 +3553,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>504824</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2">
+        <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CE9D59-696D-41BD-AA23-39A971F9196D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9968E1CA-2505-4B60-8129-F682ABAD963F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,8 +3929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3650,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,23 +4050,23 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <f>SUM(C2/5*4)</f>
-        <v>14.4</v>
+        <v>64.8</v>
       </c>
       <c r="E2">
         <f>SUM(C2/5*3)</f>
-        <v>10.8</v>
+        <v>48.599999999999994</v>
       </c>
       <c r="F2">
         <f>SUM(C2/5*2)</f>
-        <v>7.2</v>
+        <v>32.4</v>
       </c>
       <c r="G2">
         <f>SUM(C2/5*1)</f>
-        <v>3.6</v>
+        <v>16.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3709,7 +4078,13 @@
       </c>
       <c r="C3">
         <f>SUM(C2)</f>
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
       </c>
       <c r="H3">
         <v>0</v>

--- a/Documentatie/burndownchart project 2.xlsx
+++ b/Documentatie/burndownchart project 2.xlsx
@@ -1031,19 +1031,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.8</c:v>
+                  <c:v>75.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.599999999999994</c:v>
+                  <c:v>56.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.4</c:v>
+                  <c:v>37.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.2</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1179,13 +1179,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4019,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4050,23 +4056,23 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <f>SUM(C2/5*4)</f>
-        <v>64.8</v>
+        <v>75.2</v>
       </c>
       <c r="E2">
         <f>SUM(C2/5*3)</f>
-        <v>48.599999999999994</v>
+        <v>56.400000000000006</v>
       </c>
       <c r="F2">
         <f>SUM(C2/5*2)</f>
-        <v>32.4</v>
+        <v>37.6</v>
       </c>
       <c r="G2">
         <f>SUM(C2/5*1)</f>
-        <v>16.2</v>
+        <v>18.8</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4077,14 +4083,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f>SUM(C2)</f>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>60</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>

--- a/Documentatie/burndownchart project 2.xlsx
+++ b/Documentatie/burndownchart project 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shreyas\Documents\GitHub\Project2-09-00-Present\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRO\Jaar 1\project 2\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6936" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sprint 1" sheetId="1" r:id="rId1"/>
@@ -1549,13 +1549,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1586,29 +1592,79 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'sprint 3'!$C$2:$H$2</c:f>
@@ -1616,19 +1672,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.8</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1658,29 +1714,79 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'sprint 3'!$C$3:$H$3</c:f>
@@ -1688,7 +1794,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1704,14 +1810,14 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="499494536"/>
         <c:axId val="499494864"/>
@@ -1730,9 +1836,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1746,9 +1852,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1777,9 +1882,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1805,9 +1910,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1847,9 +1951,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1866,17 +1969,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3011,35 +3125,33 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3047,26 +3159,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -3075,9 +3195,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3096,14 +3215,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3112,20 +3223,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3134,13 +3245,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3152,10 +3263,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3164,16 +3275,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3191,21 +3303,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3215,20 +3324,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3242,14 +3351,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3263,9 +3372,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3279,12 +3387,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3296,9 +3398,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3313,14 +3415,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3332,14 +3433,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3351,14 +3452,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3367,14 +3467,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3382,7 +3481,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3395,11 +3494,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3407,14 +3516,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3426,12 +3535,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3447,7 +3563,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3456,9 +3571,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3468,7 +3582,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3476,9 +3590,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3489,9 +3603,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3503,12 +3616,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3935,16 +4042,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -3964,7 +4071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3991,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4025,13 +4132,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -4051,7 +4158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4078,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4111,13 +4218,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -4137,40 +4244,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="D2">
         <f>SUM(C2/5*4)</f>
-        <v>14.4</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <f>SUM(C2/5*3)</f>
-        <v>10.8</v>
+        <v>108</v>
       </c>
       <c r="F2">
         <f>SUM(C2/5*2)</f>
-        <v>7.2</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <f>SUM(C2/5*1)</f>
-        <v>3.6</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
         <f>SUM(C2)</f>
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H3">
         <v>0</v>

--- a/Documentatie/burndownchart project 2.xlsx
+++ b/Documentatie/burndownchart project 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRO\Jaar 1\project 2\Project2-09-00-Present\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shreyas\Documents\GitHub\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6936" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sprint 1" sheetId="1" r:id="rId1"/>
@@ -1191,7 +1191,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1536,6 +1536,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Burndownchart Sprint 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1665,6 +1696,32 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sprint 3'!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'sprint 3'!$C$2:$H$2</c:f>
@@ -1672,19 +1729,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>50.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1695,7 +1752,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9EAD-4CCD-9331-DB1EE184BF78}"/>
+              <c16:uniqueId val="{00000000-1087-4911-A5A8-F9329C0358C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1787,6 +1844,32 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sprint 3'!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>day3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>day4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>day5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'sprint 3'!$C$3:$H$3</c:f>
@@ -1794,7 +1877,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1805,7 +1888,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9EAD-4CCD-9331-DB1EE184BF78}"/>
+              <c16:uniqueId val="{00000001-1087-4911-A5A8-F9329C0358C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1819,16 +1902,70 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="499494536"/>
-        <c:axId val="499494864"/>
+        <c:axId val="427845504"/>
+        <c:axId val="427846160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="499494536"/>
+        <c:axId val="427845504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>aantal dagen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1864,7 +2001,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499494864"/>
+        <c:crossAx val="427846160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1872,7 +2009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499494864"/>
+        <c:axId val="427846160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,6 +2029,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Aantal punten</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1922,7 +2112,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499494536"/>
+        <c:crossAx val="427845504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3706,23 +3896,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2">
+        <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C545A15-2A66-4655-AD70-38DC6B9BE4E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90259D99-3AAC-48DC-B5D0-8C968B011AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4046,12 +4236,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -4071,7 +4261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4098,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4132,13 +4322,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -4158,7 +4348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4185,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4202,7 +4392,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4219,12 +4409,12 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D4:D5"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -4244,40 +4434,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <f>SUM(C2/5*4)</f>
-        <v>144</v>
+        <v>50.4</v>
       </c>
       <c r="E2">
         <f>SUM(C2/5*3)</f>
-        <v>108</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="F2">
         <f>SUM(C2/5*2)</f>
-        <v>72</v>
+        <v>25.2</v>
       </c>
       <c r="G2">
         <f>SUM(C2/5*1)</f>
-        <v>36</v>
+        <v>12.6</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
         <f>SUM(C2)</f>
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>0</v>

--- a/Documentatie/burndownchart project 2.xlsx
+++ b/Documentatie/burndownchart project 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shreyas\Documents\GitHub\Project2-09-00-Present\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRO\Jaar 1\project 2\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6936" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sprint 1" sheetId="1" r:id="rId1"/>
@@ -1878,6 +1878,18 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4236,12 +4248,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -4261,7 +4273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4288,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4322,13 +4334,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -4348,7 +4360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4375,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4409,12 +4421,12 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4461,13 +4473,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
         <f>SUM(C2)</f>
         <v>63</v>
+      </c>
+      <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
